--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D948EF8-00EF-4796-9354-92D8BBA35E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03015BF7-164D-4CFF-9547-DCC79E3C3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -320,414 +320,6 @@
     <t>Non</t>
   </si>
   <si>
-    <t>AGOU</t>
-  </si>
-  <si>
-    <t>AKEBOU</t>
-  </si>
-  <si>
-    <t>AMOU</t>
-  </si>
-  <si>
-    <t>BASSAR</t>
-  </si>
-  <si>
-    <t>HAHO</t>
-  </si>
-  <si>
-    <t>TCHAOUDJO</t>
-  </si>
-  <si>
-    <t>WAWA</t>
-  </si>
-  <si>
-    <t>AGBATITOE</t>
-  </si>
-  <si>
-    <t>AGOTIME ADAME</t>
-  </si>
-  <si>
-    <t>AKPAKPAKPE</t>
-  </si>
-  <si>
-    <t>ALEHERIDE</t>
-  </si>
-  <si>
-    <t>AOU MONO</t>
-  </si>
-  <si>
-    <t>ASSAHOUN FIAGBE</t>
-  </si>
-  <si>
-    <t>AVASSIKPE</t>
-  </si>
-  <si>
-    <t>AVEDZE</t>
-  </si>
-  <si>
-    <t>AVETONOU</t>
-  </si>
-  <si>
-    <t>BATOUME</t>
-  </si>
-  <si>
-    <t>BROUNFOU</t>
-  </si>
-  <si>
-    <t>CMS HANKELI</t>
-  </si>
-  <si>
-    <t>DALIA</t>
-  </si>
-  <si>
-    <t>DIMORI</t>
-  </si>
-  <si>
-    <t>HOPITAL SAINT GOTHARD DE DEDOME</t>
-  </si>
-  <si>
-    <t>HUILEHOE</t>
-  </si>
-  <si>
-    <t>KADAMBARA</t>
-  </si>
-  <si>
-    <t>KASSENA</t>
-  </si>
-  <si>
-    <t>KATI</t>
-  </si>
-  <si>
-    <t>KLABE APEGAME</t>
-  </si>
-  <si>
-    <t>KLOEGNAME</t>
-  </si>
-  <si>
-    <t>KLONOU</t>
-  </si>
-  <si>
-    <t>KOUNDOUM</t>
-  </si>
-  <si>
-    <t>KPAZA</t>
-  </si>
-  <si>
-    <t>LAMA TESSI</t>
-  </si>
-  <si>
-    <t>OGA</t>
-  </si>
-  <si>
-    <t>PATATOUKOU</t>
-  </si>
-  <si>
-    <t>SAGBADAI</t>
-  </si>
-  <si>
-    <t>SANDA AFOHOU</t>
-  </si>
-  <si>
-    <t>SANDA KAGBANDA</t>
-  </si>
-  <si>
-    <t>TAWOREDA</t>
-  </si>
-  <si>
-    <t>TCHALO</t>
-  </si>
-  <si>
-    <t>TCHATCHAMINADE</t>
-  </si>
-  <si>
-    <t>TETETOU</t>
-  </si>
-  <si>
-    <t>ABOUDIKPE</t>
-  </si>
-  <si>
-    <t>ADANTOKPODJI</t>
-  </si>
-  <si>
-    <t>ADJEVIHOE</t>
-  </si>
-  <si>
-    <t>AGAYA COPE</t>
-  </si>
-  <si>
-    <t>AGBEVE</t>
-  </si>
-  <si>
-    <t>AGOHOE</t>
-  </si>
-  <si>
-    <t>akoumne 2</t>
-  </si>
-  <si>
-    <t>AMAIDE</t>
-  </si>
-  <si>
-    <t>ANDO-KOPE</t>
-  </si>
-  <si>
-    <t>ASSIMECOPE</t>
-  </si>
-  <si>
-    <t>ASSOGBA COPE</t>
-  </si>
-  <si>
-    <t>ATCHAKAGBENE</t>
-  </si>
-  <si>
-    <t>ATTITSOHOE</t>
-  </si>
-  <si>
-    <t>AZOKAM</t>
-  </si>
-  <si>
-    <t>BAKOKOMIKOPE</t>
-  </si>
-  <si>
-    <t>BAMDE</t>
-  </si>
-  <si>
-    <t>BAVIE</t>
-  </si>
-  <si>
-    <t>BAVILE</t>
-  </si>
-  <si>
-    <t>BEKPO W</t>
-  </si>
-  <si>
-    <t>BIDJADADE</t>
-  </si>
-  <si>
-    <t>BITOKA</t>
-  </si>
-  <si>
-    <t>BOULOOU</t>
-  </si>
-  <si>
-    <t>BOUWAI</t>
-  </si>
-  <si>
-    <t>campement 3</t>
-  </si>
-  <si>
-    <t>COPE YEYE</t>
-  </si>
-  <si>
-    <t>DABADE</t>
-  </si>
-  <si>
-    <t>DACHIHOE</t>
-  </si>
-  <si>
-    <t>DEDOME</t>
-  </si>
-  <si>
-    <t>DJADEHOE</t>
-  </si>
-  <si>
-    <t>DOSSOUVIHOE</t>
-  </si>
-  <si>
-    <t>DOUSSIDE</t>
-  </si>
-  <si>
-    <t>DZIGBE</t>
-  </si>
-  <si>
-    <t>EKPLA</t>
-  </si>
-  <si>
-    <t>FIAGBOME (AVEDZE)</t>
-  </si>
-  <si>
-    <t>FONAO</t>
-  </si>
-  <si>
-    <t>GBLEVEDJI</t>
-  </si>
-  <si>
-    <t>GBORODE</t>
-  </si>
-  <si>
-    <t>GNADYO</t>
-  </si>
-  <si>
-    <t>GNANDE</t>
-  </si>
-  <si>
-    <t>GOZO</t>
-  </si>
-  <si>
-    <t>GUEDEGLELE</t>
-  </si>
-  <si>
-    <t>HAKE OUEST</t>
-  </si>
-  <si>
-    <t>HAVOUKO</t>
-  </si>
-  <si>
-    <t>IWA</t>
-  </si>
-  <si>
-    <t>KADAMBARA III</t>
-  </si>
-  <si>
-    <t>KADOASSO</t>
-  </si>
-  <si>
-    <t>KAGBANDA-CENTRE</t>
-  </si>
-  <si>
-    <t>KAGNIGADA</t>
-  </si>
-  <si>
-    <t>KALARE</t>
-  </si>
-  <si>
-    <t>KALIDE</t>
-  </si>
-  <si>
-    <t>KASSENA OUEST</t>
-  </si>
-  <si>
-    <t>KAWARE</t>
-  </si>
-  <si>
-    <t>KEDIA EST</t>
-  </si>
-  <si>
-    <t>KEDIA OUEST</t>
-  </si>
-  <si>
-    <t>KOBOYO</t>
-  </si>
-  <si>
-    <t>KOMLAHOE</t>
-  </si>
-  <si>
-    <t>KOMLAN COPE</t>
-  </si>
-  <si>
-    <t>KOUBOKOUNA</t>
-  </si>
-  <si>
-    <t>KPAKPARAKPADE</t>
-  </si>
-  <si>
-    <t>KPAZAWORO</t>
-  </si>
-  <si>
-    <t>KPEGBADJA</t>
-  </si>
-  <si>
-    <t>LAKOTO</t>
-  </si>
-  <si>
-    <t>LAMATESSI CENTRE</t>
-  </si>
-  <si>
-    <t>LAOUDA</t>
-  </si>
-  <si>
-    <t>MAKOULEY</t>
-  </si>
-  <si>
-    <t>MAKOUMAVO</t>
-  </si>
-  <si>
-    <t>MODJAGNI</t>
-  </si>
-  <si>
-    <t>MONOYO</t>
-  </si>
-  <si>
-    <t>MOUNA</t>
-  </si>
-  <si>
-    <t>NATAGBANDE</t>
-  </si>
-  <si>
-    <t>NYAMESSI</t>
-  </si>
-  <si>
-    <t>PAMPAKOUDE</t>
-  </si>
-  <si>
-    <t>PATAPA KONDJI</t>
-  </si>
-  <si>
-    <t>PISKA KOPE</t>
-  </si>
-  <si>
-    <t>SAMBA</t>
-  </si>
-  <si>
-    <t>SAMBIANI</t>
-  </si>
-  <si>
-    <t>SARAKA KOPE</t>
-  </si>
-  <si>
-    <t>SINDO. E</t>
-  </si>
-  <si>
-    <t>SOALI</t>
-  </si>
-  <si>
-    <t>TAMAONG</t>
-  </si>
-  <si>
-    <t>TARE</t>
-  </si>
-  <si>
-    <t>TCHABOUA</t>
-  </si>
-  <si>
-    <t>TCHAKASSOU</t>
-  </si>
-  <si>
-    <t>TCHALO OUEST</t>
-  </si>
-  <si>
-    <t>TCHAOURODE</t>
-  </si>
-  <si>
-    <t>TSROUVITA</t>
-  </si>
-  <si>
-    <t>UVETSEBE</t>
-  </si>
-  <si>
-    <t>WALAKAZIDE</t>
-  </si>
-  <si>
-    <t>WATAO</t>
-  </si>
-  <si>
-    <t>WOHOE</t>
-  </si>
-  <si>
-    <t>WOROYO</t>
-  </si>
-  <si>
-    <t>YAOGAN COPE</t>
-  </si>
-  <si>
-    <t>YAVA</t>
-  </si>
-  <si>
-    <t>ZOKLINKPE</t>
-  </si>
-  <si>
-    <t>ZOKOUVE</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -740,12 +332,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>(2023 Avril) - 3. SCH/STH - Kato Katz</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_3_kato_katz_202110</t>
-  </si>
-  <si>
     <t>regex(.,'^[a-zA-Z]{2,4}$')</t>
   </si>
   <si>
@@ -756,6 +342,12 @@
   </si>
   <si>
     <t>subdistrict_list = ${k_usp}</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_3_kato_katz</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 3. SCH/STH - Kato Katz</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1370,10 +962,10 @@
       <c r="D2" s="27"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1410,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>18</v>
@@ -1450,7 +1042,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="33" t="s">
-        <v>235</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="19" customFormat="1">
@@ -1798,8 +1390,8 @@
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2208,99 +1800,57 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="15"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>95</v>
-      </c>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="15"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2314,546 +1864,274 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="31.5">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="31.5">
-      <c r="A41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="31.5">
-      <c r="A48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="31.5">
-      <c r="A53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" ht="31.5">
-      <c r="A54" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="31.5">
-      <c r="A60" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="31.5">
-      <c r="A61" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="31.5">
-      <c r="A64" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="31.5">
-      <c r="A67" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="31.5">
-      <c r="A68" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>95</v>
-      </c>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
@@ -2866,1619 +2144,811 @@
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="E72" s="14"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E73" s="14"/>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="E74" s="14"/>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="E75" s="14"/>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>135</v>
-      </c>
+      <c r="A76" s="4"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="E76" s="14"/>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>136</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="E77" s="14"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>137</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="E78" s="14"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="E79" s="14"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" ht="31.5">
-      <c r="A80" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>139</v>
-      </c>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="E80" s="14"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>140</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E81" s="14"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>141</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="E82" s="14"/>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>142</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="E83" s="14"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="A84" s="4"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="E84" s="14"/>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="E85" s="14"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E86" s="14"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="31.5">
-      <c r="A87" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>145</v>
-      </c>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="E87" s="14"/>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="E88" s="14"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="E89" s="14"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="31.5">
-      <c r="A90" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>147</v>
-      </c>
+    <row r="90" spans="1:6">
+      <c r="A90" s="4"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="E90" s="14"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="A91" s="4"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="E91" s="14"/>
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>149</v>
-      </c>
+      <c r="A92" s="4"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="E92" s="14"/>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="E93" s="14"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>151</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="E94" s="14"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" ht="31.5">
-      <c r="A95" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>152</v>
-      </c>
+    <row r="95" spans="1:6">
+      <c r="A95" s="4"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="E95" s="14"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="31.5">
-      <c r="A96" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>153</v>
-      </c>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="E96" s="14"/>
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="E97" s="14"/>
       <c r="F97" s="4"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="A98" s="4"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E98" s="14"/>
       <c r="F98" s="4"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="A99" s="4"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="E99" s="14"/>
       <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>157</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E100" s="14"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" ht="47.25">
-      <c r="A101" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>158</v>
-      </c>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="E101" s="14"/>
       <c r="F101" s="4"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="E102" s="14"/>
       <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>159</v>
-      </c>
+      <c r="A103" s="4"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E103" s="14"/>
       <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="E104" s="14"/>
       <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>161</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="E105" s="14"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" ht="31.5">
-      <c r="A106" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>162</v>
-      </c>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="E106" s="14"/>
       <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="E107" s="14"/>
       <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="E108" s="14"/>
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="E109" s="14"/>
       <c r="F109" s="4"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>166</v>
-      </c>
+      <c r="A110" s="4"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E110" s="14"/>
       <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>167</v>
-      </c>
+      <c r="A111" s="4"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="E111" s="14"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" ht="31.5">
-      <c r="A112" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>168</v>
-      </c>
+    <row r="112" spans="1:6">
+      <c r="A112" s="4"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="E112" s="14"/>
       <c r="F112" s="4"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>169</v>
-      </c>
+      <c r="A113" s="4"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="E113" s="14"/>
       <c r="F113" s="4"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>170</v>
-      </c>
+      <c r="A114" s="4"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="E114" s="14"/>
       <c r="F114" s="4"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>171</v>
-      </c>
+      <c r="A115" s="4"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="E115" s="14"/>
       <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>172</v>
-      </c>
+      <c r="A116" s="4"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E116" s="14"/>
       <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="E117" s="14"/>
       <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>174</v>
-      </c>
+      <c r="A118" s="4"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="E118" s="14"/>
       <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>175</v>
-      </c>
+      <c r="A119" s="4"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="E119" s="14"/>
       <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>176</v>
-      </c>
+      <c r="A120" s="4"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="E120" s="14"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" ht="31.5">
-      <c r="A121" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>177</v>
-      </c>
+    <row r="121" spans="1:6">
+      <c r="A121" s="4"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="E121" s="14"/>
       <c r="F121" s="4"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="A122" s="4"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="14" t="s">
-        <v>114</v>
-      </c>
+      <c r="E122" s="14"/>
       <c r="F122" s="4"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>179</v>
-      </c>
+      <c r="A123" s="4"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="E123" s="14"/>
       <c r="F123" s="4"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="A124" s="4"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="E124" s="14"/>
       <c r="F124" s="4"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="A125" s="4"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="14" t="s">
-        <v>114</v>
-      </c>
+      <c r="E125" s="14"/>
       <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>182</v>
-      </c>
+      <c r="A126" s="4"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E126" s="14"/>
       <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>183</v>
-      </c>
+      <c r="A127" s="4"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="14" t="s">
-        <v>108</v>
-      </c>
+      <c r="E127" s="14"/>
       <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="A128" s="4"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="14" t="s">
-        <v>108</v>
-      </c>
+      <c r="E128" s="14"/>
       <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="A129" s="4"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="E129" s="14"/>
       <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>185</v>
-      </c>
+      <c r="A130" s="4"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="E130" s="14"/>
       <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="A131" s="4"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="E131" s="14"/>
       <c r="F131" s="4"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>187</v>
-      </c>
+      <c r="A132" s="4"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="E132" s="14"/>
       <c r="F132" s="4"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>188</v>
-      </c>
+      <c r="A133" s="4"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="E133" s="14"/>
       <c r="F133" s="4"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>189</v>
-      </c>
+      <c r="A134" s="4"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="E134" s="14"/>
       <c r="F134" s="4"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C135" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="A135" s="4"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="E135" s="14"/>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C136" s="14" t="s">
-        <v>191</v>
-      </c>
+      <c r="A136" s="4"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="E136" s="14"/>
       <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>192</v>
-      </c>
+      <c r="A137" s="4"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="E137" s="14"/>
       <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>193</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="E138" s="14"/>
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>194</v>
-      </c>
+      <c r="A139" s="4"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="E139" s="14"/>
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C140" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="A140" s="4"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="E140" s="14"/>
       <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="A141" s="4"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="E141" s="14"/>
       <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="A142" s="4"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="E142" s="14"/>
       <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C143" s="14" t="s">
-        <v>198</v>
-      </c>
+      <c r="A143" s="4"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="E143" s="14"/>
       <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>199</v>
-      </c>
+      <c r="A144" s="4"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="E144" s="14"/>
       <c r="F144" s="4"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="A145" s="4"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="E145" s="14"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="1:6" ht="31.5">
-      <c r="A146" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C146" s="14" t="s">
-        <v>201</v>
-      </c>
+    <row r="146" spans="1:6">
+      <c r="A146" s="4"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="E146" s="14"/>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>202</v>
-      </c>
+      <c r="A147" s="4"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="E147" s="14"/>
       <c r="F147" s="4"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="14" t="s">
-        <v>203</v>
-      </c>
+      <c r="A148" s="4"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="E148" s="14"/>
       <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="A149" s="4"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="E149" s="14"/>
       <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C150" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="A150" s="4"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="E150" s="14"/>
       <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>205</v>
-      </c>
+      <c r="A151" s="4"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="E151" s="14"/>
       <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>206</v>
-      </c>
+      <c r="A152" s="4"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E152" s="14"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="1:6" ht="31.5">
-      <c r="A153" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>207</v>
-      </c>
+    <row r="153" spans="1:6">
+      <c r="A153" s="4"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="E153" s="14"/>
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>208</v>
-      </c>
+      <c r="A154" s="4"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="E154" s="14"/>
       <c r="F154" s="4"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>209</v>
-      </c>
+      <c r="A155" s="4"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="E155" s="14"/>
       <c r="F155" s="4"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>210</v>
-      </c>
+      <c r="A156" s="4"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="E156" s="14"/>
       <c r="F156" s="4"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>211</v>
-      </c>
+      <c r="A157" s="4"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="E157" s="14"/>
       <c r="F157" s="4"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C158" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="A158" s="4"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="E158" s="14"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="1:6" ht="31.5">
-      <c r="A159" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C159" s="14" t="s">
-        <v>212</v>
-      </c>
+    <row r="159" spans="1:6">
+      <c r="A159" s="4"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="E159" s="14"/>
       <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>213</v>
-      </c>
+      <c r="A160" s="4"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="E160" s="14"/>
       <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C161" s="14" t="s">
-        <v>214</v>
-      </c>
+      <c r="A161" s="4"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="E161" s="14"/>
       <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>215</v>
-      </c>
+      <c r="A162" s="4"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="E162" s="14"/>
       <c r="F162" s="4"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C163" s="14" t="s">
-        <v>216</v>
-      </c>
+      <c r="A163" s="4"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E163" s="14"/>
       <c r="F163" s="4"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>217</v>
-      </c>
+      <c r="A164" s="4"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="E164" s="14"/>
       <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>218</v>
-      </c>
+      <c r="A165" s="4"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="E165" s="14"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:6" ht="31.5">
-      <c r="A166" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>219</v>
-      </c>
+    <row r="166" spans="1:6">
+      <c r="A166" s="4"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="E166" s="14"/>
       <c r="F166" s="4"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="A167" s="4"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="E167" s="14"/>
       <c r="F167" s="4"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>221</v>
-      </c>
+      <c r="A168" s="4"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="E168" s="14"/>
       <c r="F168" s="4"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>222</v>
-      </c>
+      <c r="A169" s="4"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="E169" s="14"/>
       <c r="F169" s="4"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>223</v>
-      </c>
+      <c r="A170" s="4"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="E170" s="14"/>
       <c r="F170" s="4"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C171" s="14" t="s">
-        <v>224</v>
-      </c>
+      <c r="A171" s="4"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E171" s="14"/>
       <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>225</v>
-      </c>
+      <c r="A172" s="4"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="E172" s="14"/>
       <c r="F172" s="4"/>
     </row>
     <row r="173" spans="1:6">
@@ -4502,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4514,24 +2984,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03015BF7-164D-4CFF-9547-DCC79E3C3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA27F102-8E65-4DF5-AE04-84D6BFEE0136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -266,51 +266,15 @@
     <t>FONVI Akakpo </t>
   </si>
   <si>
-    <t>GBOGBATSE Komi Mensa  </t>
-  </si>
-  <si>
-    <t>GNAMEY Judith </t>
-  </si>
-  <si>
     <t>HOUNYOVI Ayaovi</t>
   </si>
   <si>
-    <t>KAMASSA Hélène </t>
-  </si>
-  <si>
-    <t>KANTCHIRE Yendoube Emmanuel </t>
-  </si>
-  <si>
-    <t>KOKAN Faïzat </t>
-  </si>
-  <si>
-    <t>KUTOATI Abla Grâce </t>
-  </si>
-  <si>
-    <t>LARE Soumbako  </t>
-  </si>
-  <si>
-    <t>NAKOME Bamouni  </t>
-  </si>
-  <si>
     <t>NOUSSOUGNON Kokou</t>
   </si>
   <si>
     <t>SOH Atafembou</t>
   </si>
   <si>
-    <t>SOSSOU Efoe Stephane </t>
-  </si>
-  <si>
-    <t>SOTOU Novinyo  </t>
-  </si>
-  <si>
-    <t>TCHAKOU-HOHOE Koffi-Messan </t>
-  </si>
-  <si>
-    <t>YAKPA Kossi Georges </t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -348,6 +312,105 @@
   </si>
   <si>
     <t>(2023 Sept) - 3. SCH/STH - Kato Katz</t>
+  </si>
+  <si>
+    <t>ABAYE Elom</t>
+  </si>
+  <si>
+    <t>ABDOU-KERIM Agueregna</t>
+  </si>
+  <si>
+    <t>ADABRA Hélène</t>
+  </si>
+  <si>
+    <t>ADJAGODO Gadiel</t>
+  </si>
+  <si>
+    <t>ADJENDA Eke</t>
+  </si>
+  <si>
+    <t>AFANOU Kokou M</t>
+  </si>
+  <si>
+    <t>AGBOZO Senyo</t>
+  </si>
+  <si>
+    <t>AKOBI  Komi</t>
+  </si>
+  <si>
+    <t>AKUTSA Kafui</t>
+  </si>
+  <si>
+    <t>AWILI Mazama Esso</t>
+  </si>
+  <si>
+    <t>BADJASSEM Gloria Diyane</t>
+  </si>
+  <si>
+    <t>BAKOLTINA Disrama Denise</t>
+  </si>
+  <si>
+    <t>BATEBAWI Raphaël</t>
+  </si>
+  <si>
+    <t>DJAMAH Prosper</t>
+  </si>
+  <si>
+    <t>DJOBO Annissah</t>
+  </si>
+  <si>
+    <t>DOUMONGUE Tibanguebé</t>
+  </si>
+  <si>
+    <t>EKAHOHO Yaovi</t>
+  </si>
+  <si>
+    <t>GBOGBATSE Komi Mensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNANLABA Pyabalo </t>
+  </si>
+  <si>
+    <t>KOKAN Faïzat</t>
+  </si>
+  <si>
+    <t>KUTOATI Abla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGO Kokou </t>
+  </si>
+  <si>
+    <t>MONTANT Minyo Ega Sossa</t>
+  </si>
+  <si>
+    <t>N’DATO Kossi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAKOME Bamouni </t>
+  </si>
+  <si>
+    <t>PORO Kpatcha Edjareguew</t>
+  </si>
+  <si>
+    <t>SAGOA Djamsa</t>
+  </si>
+  <si>
+    <t>SEDJRO Afantolo</t>
+  </si>
+  <si>
+    <t>SINGO ATTAH</t>
+  </si>
+  <si>
+    <t>SOLI Lontassam</t>
+  </si>
+  <si>
+    <t>SOTOU Novinyo</t>
+  </si>
+  <si>
+    <t>TAGBA Atna Edi</t>
+  </si>
+  <si>
+    <t>TCHAGBELE Wanikougnon</t>
   </si>
 </sst>
 </file>
@@ -513,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -604,6 +667,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,10 +1035,10 @@
       <c r="D2" s="27"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1002,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>18</v>
@@ -1042,7 +1115,7 @@
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="33" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="19" customFormat="1">
@@ -1387,11 +1460,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD805"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A47:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1548,10 +1621,10 @@
         <v>63</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="15"/>
@@ -1563,10 +1636,10 @@
         <v>63</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="15"/>
@@ -1578,10 +1651,10 @@
         <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="15"/>
@@ -1593,10 +1666,10 @@
         <v>63</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="15"/>
@@ -1608,10 +1681,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="15"/>
@@ -1623,10 +1696,10 @@
         <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="15"/>
@@ -1638,10 +1711,10 @@
         <v>63</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="15"/>
@@ -1653,10 +1726,10 @@
         <v>63</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="15"/>
@@ -1668,10 +1741,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="15"/>
@@ -1683,10 +1756,10 @@
         <v>63</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="15"/>
@@ -1698,10 +1771,10 @@
         <v>63</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="15"/>
@@ -1713,10 +1786,10 @@
         <v>63</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="15"/>
@@ -1728,10 +1801,10 @@
         <v>63</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="15"/>
@@ -1743,10 +1816,10 @@
         <v>63</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="15"/>
@@ -1758,276 +1831,423 @@
         <v>63</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+    <row r="25" spans="1:7" s="4" customFormat="1">
+      <c r="A25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="4"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1">
+      <c r="A27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1">
+      <c r="A29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1">
+      <c r="A31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1">
+      <c r="A32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1">
+      <c r="A33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1">
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1">
+      <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1">
+      <c r="A37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1">
+      <c r="A38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1">
+      <c r="A39" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1">
+      <c r="A40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1">
+      <c r="A41" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1">
+      <c r="A42" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1">
+      <c r="A43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1">
+      <c r="A44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1">
+      <c r="A45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="4"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="4"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
@@ -2137,9 +2357,9 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
@@ -2147,168 +2367,168 @@
       <c r="A72" s="4"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="4"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="4"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="4"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="4"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="4"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="4"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="4"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="14"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6">
@@ -2953,15 +3173,183 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="4"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
+      <c r="E173" s="14"/>
       <c r="F173" s="4"/>
     </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="4"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="4"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="4"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="4"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="4"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="4"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="4"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="4"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="4"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="4"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="4"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="4"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="4"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="4"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="4"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="4"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="4"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="4"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="4"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="4"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="4"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B59">
-    <sortCondition ref="A14:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B80">
+    <sortCondition ref="A14:A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2972,7 +3360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2984,24 +3372,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
@@ -8,21 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA27F102-8E65-4DF5-AE04-84D6BFEE0136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B6457-72C3-4E91-B83A-3F4769804403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$G$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
   <si>
     <t>type</t>
   </si>
@@ -107,9 +123,6 @@
     </r>
   </si>
   <si>
-    <t>district_list = ${k_district}</t>
-  </si>
-  <si>
     <t>k_site_name</t>
   </si>
   <si>
@@ -122,30 +135,9 @@
     <t>k_barcodeid</t>
   </si>
   <si>
-    <t>Veuillez scanner le QR Code</t>
-  </si>
-  <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
-    <t>k_barcode_ok</t>
-  </si>
-  <si>
-    <t>Le code QR a-t-il été correctement scanné</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
-    <t>k_manual_code_id</t>
-  </si>
-  <si>
-    <t>Saisez le code QR manuellement</t>
-  </si>
-  <si>
-    <t>${k_barcode_ok} = 'Non'</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -305,15 +297,6 @@
     <t>k_usp</t>
   </si>
   <si>
-    <t>subdistrict_list = ${k_usp}</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_3_kato_katz</t>
-  </si>
-  <si>
-    <t>(2023 Sept) - 3. SCH/STH - Kato Katz</t>
-  </si>
-  <si>
     <t>ABAYE Elom</t>
   </si>
   <si>
@@ -411,13 +394,43 @@
   </si>
   <si>
     <t>TCHAGBELE Wanikougnon</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_3_kato_katz_v2</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 3. SCH/STH - Kato Katz V2</t>
+  </si>
+  <si>
+    <t>Sélectionner la région</t>
+  </si>
+  <si>
+    <t>k_region</t>
+  </si>
+  <si>
+    <t>Veuillez scanner le QR Code à nouveau</t>
+  </si>
+  <si>
+    <t>k_barcodeid2</t>
+  </si>
+  <si>
+    <t>. = ${k_barcodeid}</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le QR code le l'enfant enregistré</t>
+  </si>
+  <si>
+    <t>Le QR code doit être le même que le QR code sélectioné.</t>
+  </si>
+  <si>
+    <t>allow_choice_duplicates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -482,6 +495,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -576,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -648,9 +668,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -677,11 +694,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
@@ -961,11 +1027,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1035,10 +1101,10 @@
       <c r="D2" s="27"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1050,13 +1116,13 @@
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="9"/>
@@ -1070,39 +1136,37 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="18" customFormat="1">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:12" s="3" customFormat="1">
+      <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1">
+      <c r="A5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="18" customFormat="1">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="9"/>
@@ -1114,69 +1178,69 @@
         <v>14</v>
       </c>
       <c r="K5" s="9"/>
-      <c r="L5" s="33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="19" customFormat="1">
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:12" s="18" customFormat="1">
       <c r="A6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" s="19" customFormat="1">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="29"/>
+      <c r="A7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" s="19" customFormat="1" ht="31.5">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
         <v>14</v>
@@ -1186,231 +1250,231 @@
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="30"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10" s="27"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="30"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="31.5">
       <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" s="27"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13" s="27"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1">
       <c r="A14" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" s="27"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1">
       <c r="A15" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1">
       <c r="A16" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="25"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="11"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
@@ -1418,17 +1482,17 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="31"/>
+        <v>48</v>
+      </c>
+      <c r="C20" s="30"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="25"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="11"/>
       <c r="J20" s="10"/>
       <c r="K20" s="11"/>
@@ -1436,17 +1500,17 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="25" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="C21" s="30"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="25"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="11"/>
       <c r="J21" s="10"/>
       <c r="K21" s="11"/>
@@ -1462,9 +1526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A47:XFD49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1477,7 +1541,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -1486,25 +1550,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="15"/>
@@ -1513,13 +1577,13 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="15"/>
@@ -1528,13 +1592,13 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="15"/>
@@ -1543,13 +1607,13 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="15"/>
@@ -1558,13 +1622,13 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="15"/>
@@ -1573,13 +1637,13 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="15"/>
@@ -1588,13 +1652,13 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="15"/>
@@ -1603,13 +1667,13 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
       <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="15"/>
@@ -1618,13 +1682,13 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="15"/>
@@ -1633,13 +1697,13 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="15"/>
@@ -1648,13 +1712,13 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="15"/>
@@ -1663,13 +1727,13 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="15"/>
@@ -1678,13 +1742,13 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="15"/>
@@ -1693,13 +1757,13 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="15"/>
@@ -1708,13 +1772,13 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="15"/>
@@ -1723,13 +1787,13 @@
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1">
       <c r="A17" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="15"/>
@@ -1738,13 +1802,13 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="15"/>
@@ -1753,13 +1817,13 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="15"/>
@@ -1768,13 +1832,13 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1">
       <c r="A20" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="15"/>
@@ -1783,13 +1847,13 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="15"/>
@@ -1798,13 +1862,13 @@
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="15"/>
@@ -1813,13 +1877,13 @@
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="15"/>
@@ -1828,13 +1892,13 @@
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="15"/>
@@ -1843,348 +1907,348 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" s="4" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1">
       <c r="A39" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1">
       <c r="A40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1">
       <c r="A41" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1">
       <c r="A42" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1">
       <c r="A44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1">
       <c r="A45" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3348,9 +3412,14 @@
       <c r="F194" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:B80">
     <sortCondition ref="A14:A80"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3358,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3370,26 +3439,32 @@
     <col min="2" max="2" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B6457-72C3-4E91-B83A-3F4769804403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C51B1B-02D2-4A9A-8ED1-CD625963B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
   <si>
     <t>type</t>
   </si>
@@ -425,12 +425,15 @@
   <si>
     <t>allow_choice_duplicates</t>
   </si>
+  <si>
+    <t>select_one recorders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,6 +508,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -596,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -712,21 +721,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1027,11 +1029,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1089,8 +1091,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="31.5">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
+      <c r="A2" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -1526,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
@@ -3417,8 +3419,8 @@
     <sortCondition ref="A14:A80"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C51B1B-02D2-4A9A-8ED1-CD625963B1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C95B63-23CA-49EF-BD9A-BE30E09EC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -288,12 +288,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>regex(.,'^[a-zA-Z]{2,4}$')</t>
-  </si>
-  <si>
-    <t>Doit contenir 2 à 4 caractère alphanumérique</t>
-  </si>
-  <si>
     <t>k_usp</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
     <t>MONTANT Minyo Ega Sossa</t>
   </si>
   <si>
-    <t>N’DATO Kossi</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAKOME Bamouni </t>
   </si>
   <si>
@@ -427,6 +418,9 @@
   </si>
   <si>
     <t>select_one recorders</t>
+  </si>
+  <si>
+    <t>NDATO Kossi</t>
   </si>
 </sst>
 </file>
@@ -1029,11 +1023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1090,9 +1084,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="31.5">
+    <row r="2" spans="1:12" s="3" customFormat="1">
       <c r="A2" s="45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -1102,12 +1096,8 @@
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
@@ -1121,10 +1111,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="9"/>
@@ -1165,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>18</v>
@@ -1212,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="42"/>
@@ -1229,18 +1219,18 @@
         <v>21</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="42"/>
       <c r="F8" s="44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1528,9 +1518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1687,10 +1677,10 @@
         <v>55</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="15"/>
@@ -1702,10 +1692,10 @@
         <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="15"/>
@@ -1717,10 +1707,10 @@
         <v>55</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="15"/>
@@ -1732,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="15"/>
@@ -1747,10 +1737,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="15"/>
@@ -1762,10 +1752,10 @@
         <v>55</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="15"/>
@@ -1777,10 +1767,10 @@
         <v>55</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="15"/>
@@ -1792,10 +1782,10 @@
         <v>55</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="15"/>
@@ -1807,10 +1797,10 @@
         <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="15"/>
@@ -1822,10 +1812,10 @@
         <v>55</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="15"/>
@@ -1837,10 +1827,10 @@
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="15"/>
@@ -1852,10 +1842,10 @@
         <v>55</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="15"/>
@@ -1867,10 +1857,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="15"/>
@@ -1882,10 +1872,10 @@
         <v>55</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="15"/>
@@ -1897,10 +1887,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="15"/>
@@ -1912,10 +1902,10 @@
         <v>55</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
@@ -1927,10 +1917,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
@@ -1942,10 +1932,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
@@ -1957,10 +1947,10 @@
         <v>55</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
@@ -1987,10 +1977,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="37"/>
       <c r="E30" s="38"/>
@@ -2002,10 +1992,10 @@
         <v>55</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="38"/>
@@ -2017,10 +2007,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="38"/>
@@ -2032,10 +2022,10 @@
         <v>55</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -2047,10 +2037,10 @@
         <v>55</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="38"/>
@@ -2062,10 +2052,10 @@
         <v>55</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="38"/>
@@ -2092,10 +2082,10 @@
         <v>55</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="38"/>
@@ -2107,10 +2097,10 @@
         <v>55</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -2122,10 +2112,10 @@
         <v>55</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="38"/>
@@ -2137,10 +2127,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="38"/>
@@ -2167,10 +2157,10 @@
         <v>55</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="38"/>
@@ -2182,10 +2172,10 @@
         <v>55</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="38"/>
@@ -2197,10 +2187,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="38"/>
@@ -2212,10 +2202,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
@@ -3452,15 +3442,15 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>

--- a/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2023/tg_sch_sth_impact_202309_3_kato_katz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD856BF2-DC20-416E-B2C1-E780F49A9A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B91BA8-47ED-453E-B4FB-C4389F97B647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="128">
   <si>
     <t>type</t>
   </si>
@@ -205,39 +205,9 @@
     <t>recorders</t>
   </si>
   <si>
-    <t>ABOU KERIM Aguérégna </t>
-  </si>
-  <si>
-    <t>ADABRA Hélène </t>
-  </si>
-  <si>
-    <t>ADJODI Anabédédi Jonas </t>
-  </si>
-  <si>
-    <t>AGBOZO Senyo  </t>
-  </si>
-  <si>
-    <t>AGOSSOU A. Adolphe  </t>
-  </si>
-  <si>
-    <t>AMADOU Moussa </t>
-  </si>
-  <si>
-    <t>ANAGO Espoir  </t>
-  </si>
-  <si>
-    <t>FONVI Akakpo </t>
-  </si>
-  <si>
     <t>HOUNYOVI Ayaovi</t>
   </si>
   <si>
-    <t>NOUSSOUGNON Kokou</t>
-  </si>
-  <si>
-    <t>SOH Atafembou</t>
-  </si>
-  <si>
     <t>yesNo</t>
   </si>
   <si>
@@ -262,30 +232,18 @@
     <t>k_usp</t>
   </si>
   <si>
-    <t>ABAYE Elom</t>
-  </si>
-  <si>
     <t>ABDOU-KERIM Agueregna</t>
   </si>
   <si>
-    <t>ADABRA Hélène</t>
-  </si>
-  <si>
     <t>ADJAGODO Gadiel</t>
   </si>
   <si>
-    <t>ADJENDA Eke</t>
-  </si>
-  <si>
     <t>AFANOU Kokou M</t>
   </si>
   <si>
     <t>AGBOZO Senyo</t>
   </si>
   <si>
-    <t>AKOBI  Komi</t>
-  </si>
-  <si>
     <t>AKUTSA Kafui</t>
   </si>
   <si>
@@ -295,66 +253,33 @@
     <t>BADJASSEM Gloria Diyane</t>
   </si>
   <si>
-    <t>BAKOLTINA Disrama Denise</t>
-  </si>
-  <si>
     <t>BATEBAWI Raphaël</t>
   </si>
   <si>
-    <t>DJAMAH Prosper</t>
-  </si>
-  <si>
-    <t>DJOBO Annissah</t>
-  </si>
-  <si>
     <t>DOUMONGUE Tibanguebé</t>
   </si>
   <si>
     <t>EKAHOHO Yaovi</t>
   </si>
   <si>
-    <t>GBOGBATSE Komi Mensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GNANLABA Pyabalo </t>
-  </si>
-  <si>
     <t>KOKAN Faïzat</t>
   </si>
   <si>
     <t>KUTOATI Abla</t>
   </si>
   <si>
-    <t xml:space="preserve">LOGO Kokou </t>
-  </si>
-  <si>
     <t>MONTANT Minyo Ega Sossa</t>
   </si>
   <si>
-    <t xml:space="preserve">NAKOME Bamouni </t>
-  </si>
-  <si>
-    <t>PORO Kpatcha Edjareguew</t>
-  </si>
-  <si>
     <t>SAGOA Djamsa</t>
   </si>
   <si>
-    <t>SEDJRO Afantolo</t>
-  </si>
-  <si>
-    <t>SINGO ATTAH</t>
-  </si>
-  <si>
     <t>SOLI Lontassam</t>
   </si>
   <si>
     <t>SOTOU Novinyo</t>
   </si>
   <si>
-    <t>TAGBA Atna Edi</t>
-  </si>
-  <si>
     <t>TCHAGBELE Wanikougnon</t>
   </si>
   <si>
@@ -377,15 +302,6 @@
   </si>
   <si>
     <t>select_one recorders</t>
-  </si>
-  <si>
-    <t>NDATO Kossi</t>
-  </si>
-  <si>
-    <t>(2023 Sept) - 3. SCH/STH - Kato Katz V3</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_202309_3_kato_katz_v3</t>
   </si>
   <si>
     <t>select_one yesNo</t>
@@ -459,6 +375,75 @@
   </si>
   <si>
     <t>k_barcodeid3</t>
+  </si>
+  <si>
+    <t>(2023 Sept) - 3. SCH/STH - Kato Katz V4</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_202309_3_kato_katz_v4</t>
+  </si>
+  <si>
+    <t>ABAYE Kokou Mawulom</t>
+  </si>
+  <si>
+    <t>ADABRA Abra Hélène</t>
+  </si>
+  <si>
+    <t>ADJINDA Eké</t>
+  </si>
+  <si>
+    <t>AKOBI Komi</t>
+  </si>
+  <si>
+    <t>BAKOLITANA Disrama Denise</t>
+  </si>
+  <si>
+    <t>DJAMAH Yaovi Prosper</t>
+  </si>
+  <si>
+    <t>DJOBO Anissah</t>
+  </si>
+  <si>
+    <t>FONVI Akakpo</t>
+  </si>
+  <si>
+    <t>GBOGBATSE</t>
+  </si>
+  <si>
+    <t>GNANLABA Pyabalo</t>
+  </si>
+  <si>
+    <t>LACK Fiali,</t>
+  </si>
+  <si>
+    <t>LOGO Kokou Dodji</t>
+  </si>
+  <si>
+    <t>N’DATO Kossi</t>
+  </si>
+  <si>
+    <t>NAKOME Bamouni</t>
+  </si>
+  <si>
+    <t>NOUSSOUGNON Kokou S.</t>
+  </si>
+  <si>
+    <t>PORO Kpatcha Edjaréguéw</t>
+  </si>
+  <si>
+    <t>SEDJRO Afantolou</t>
+  </si>
+  <si>
+    <t>SINGO Kodjo ATTAH</t>
+  </si>
+  <si>
+    <t>SOH Aféyibou</t>
+  </si>
+  <si>
+    <t>TAGBA Atna-Edi M.</t>
+  </si>
+  <si>
+    <t>YAKPA Kossi</t>
   </si>
 </sst>
 </file>
@@ -636,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -663,7 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -682,9 +666,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1055,689 +1036,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="46" customWidth="1"/>
-    <col min="4" max="4" width="47.375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="20" customWidth="1"/>
-    <col min="11" max="11" width="13.875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="36.625" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="20"/>
+    <col min="1" max="1" width="19.625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="22" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="19" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="36.625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="19" customFormat="1" ht="18.75">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" s="18" customFormat="1" ht="18.75">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="19" customFormat="1">
-      <c r="A2" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:12" s="18" customFormat="1">
+      <c r="A2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1">
-      <c r="A3" s="25" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" s="18" customFormat="1">
+      <c r="A3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" s="35" customFormat="1">
-      <c r="A4" s="27" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" s="33" customFormat="1">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27" t="s">
+      <c r="B4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:12" s="35" customFormat="1">
-      <c r="A5" s="27" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" s="33" customFormat="1">
+      <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" s="39" customFormat="1">
-      <c r="A6" s="25" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" s="37" customFormat="1">
+      <c r="A6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" s="39" customFormat="1" ht="31.5">
-      <c r="A7" s="25" t="s">
+      <c r="C6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" s="37" customFormat="1" ht="31.5">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27" t="s">
+      <c r="B7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" s="19" customFormat="1">
-      <c r="A8" s="31" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" s="18" customFormat="1">
+      <c r="A8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="31" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" s="19" customFormat="1">
-      <c r="A9" s="31" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1">
+      <c r="A9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="31" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" s="19" customFormat="1">
-      <c r="A10" s="31" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="31" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-    </row>
-    <row r="11" spans="1:12" s="19" customFormat="1">
-      <c r="A11" s="31" t="s">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:12" s="18" customFormat="1">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="31" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" s="19" customFormat="1">
-      <c r="A12" s="31" t="s">
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1">
+      <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="31" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" spans="1:12" s="19" customFormat="1">
-      <c r="A13" s="31" t="s">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1">
+      <c r="A13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="31" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" s="19" customFormat="1">
-      <c r="A14" s="31" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1">
+      <c r="A14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="31" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" s="19" customFormat="1">
-      <c r="A15" s="31" t="s">
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:12" s="18" customFormat="1">
+      <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="31" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" s="19" customFormat="1">
-      <c r="A16" s="31" t="s">
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="1:12" s="18" customFormat="1">
+      <c r="A16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="31" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="1:12" s="19" customFormat="1">
-      <c r="A17" s="31" t="s">
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12" s="18" customFormat="1">
+      <c r="A17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="31" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="1:12" s="19" customFormat="1">
-      <c r="A18" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="31" t="s">
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12" s="18" customFormat="1">
+      <c r="A18" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="1:12" s="39" customFormat="1" ht="31.5">
-      <c r="A19" s="25" t="s">
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12" s="37" customFormat="1" ht="31.5">
+      <c r="A19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27" t="s">
+      <c r="B19" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" s="19" customFormat="1">
-      <c r="A20" s="31" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1">
+      <c r="A20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="31" t="s">
+      <c r="B20" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:12" s="19" customFormat="1">
-      <c r="A21" s="31" t="s">
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12" s="18" customFormat="1">
+      <c r="A21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="31" t="s">
+      <c r="B21" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:12" s="19" customFormat="1">
-      <c r="A22" s="31" t="s">
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1">
+      <c r="A22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="31" t="s">
+      <c r="B22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:12" s="19" customFormat="1">
-      <c r="A23" s="31" t="s">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" s="18" customFormat="1">
+      <c r="A23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="31" t="s">
+      <c r="B23" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="19" customFormat="1">
-      <c r="A24" s="31" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="18" customFormat="1">
+      <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="31" t="s">
+      <c r="B24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="19" customFormat="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" s="19" customFormat="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="1:12" s="19" customFormat="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+    <row r="25" spans="1:12" s="18" customFormat="1">
+      <c r="A25" s="29"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" s="18" customFormat="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" s="18" customFormat="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1747,11 +1728,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1772,1877 +1753,1737 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+        <v>107</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+        <v>109</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1">
       <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1">
       <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="B28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="B29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="B31" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1">
       <c r="A32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="B32" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="B33" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1">
       <c r="A34" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="B34" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="B35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1">
       <c r="A36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="B36" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="B37" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1">
       <c r="A38" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="B38" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="B39" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="B40" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" s="3" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="B41" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="B42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" s="3" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1">
-      <c r="A44" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1">
-      <c r="A45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1">
-      <c r="A46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" s="3" customFormat="1">
-      <c r="A47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1">
-      <c r="A48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" s="3" customFormat="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
+      <c r="B43" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="3"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="3"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="3"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="3"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="3"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="3"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="3"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="3"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="3"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="12"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="3"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="12"/>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="3"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="3"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="12"/>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="3"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="3"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="12"/>
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="3"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="3"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="12"/>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="3"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="3"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="3"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="3"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="3"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="12"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="3"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="12"/>
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="3"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="3"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="3"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="12"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="3"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="3"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="3"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="3"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="13"/>
+      <c r="E94" s="12"/>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="3"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="13"/>
+      <c r="E95" s="12"/>
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="3"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="13"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="3"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="13"/>
+      <c r="E97" s="12"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="3"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="13"/>
+      <c r="E98" s="12"/>
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="13"/>
+      <c r="E99" s="12"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="3"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="13"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="3"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="13"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="3"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="13"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="3"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="13"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="13"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="3"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="13"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="3"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="13"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="3"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="13"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="3"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="3"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="13"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="3"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="13"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="3"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="13"/>
+      <c r="E110" s="12"/>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="3"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="13"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="3"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="13"/>
+      <c r="E112" s="12"/>
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="3"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="13"/>
+      <c r="E113" s="12"/>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="3"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="13"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="3"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="13"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="3"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="13"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="3"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="13"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="3"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="12"/>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="3"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="13"/>
+      <c r="E119" s="12"/>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="3"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="13"/>
+      <c r="E120" s="12"/>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="3"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="13"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="3"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="13"/>
+      <c r="E122" s="12"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="3"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="13"/>
+      <c r="E123" s="12"/>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="3"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="13"/>
+      <c r="E124" s="12"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="3"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="13"/>
+      <c r="E125" s="12"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="3"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="13"/>
+      <c r="E126" s="12"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="3"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="13"/>
+      <c r="E127" s="12"/>
       <c r="F127" s="3"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="3"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="13"/>
+      <c r="E128" s="12"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="3"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="13"/>
+      <c r="E129" s="12"/>
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="3"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="13"/>
+      <c r="E130" s="12"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="3"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="13"/>
+      <c r="E131" s="12"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="3"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="13"/>
+      <c r="E132" s="12"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="3"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="13"/>
+      <c r="E133" s="12"/>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="3"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="13"/>
+      <c r="E134" s="12"/>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="3"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="13"/>
+      <c r="E135" s="12"/>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="3"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="13"/>
+      <c r="E136" s="12"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="3"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="13"/>
+      <c r="E137" s="12"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="3"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="13"/>
+      <c r="E138" s="12"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="3"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="13"/>
+      <c r="E139" s="12"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="3"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="13"/>
+      <c r="E140" s="12"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="3"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="13"/>
+      <c r="E141" s="12"/>
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="3"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="13"/>
+      <c r="E142" s="12"/>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="3"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="13"/>
+      <c r="E143" s="12"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="3"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="13"/>
+      <c r="E144" s="12"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="3"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="13"/>
+      <c r="E145" s="12"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="3"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="13"/>
+      <c r="E146" s="12"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="3"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="13"/>
+      <c r="E147" s="12"/>
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="3"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="13"/>
+      <c r="E148" s="12"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="3"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="13"/>
+      <c r="E149" s="12"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="3"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="13"/>
+      <c r="E150" s="12"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="3"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="13"/>
+      <c r="E151" s="12"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="3"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="13"/>
+      <c r="E152" s="12"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="3"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="13"/>
+      <c r="E153" s="12"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="3"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="13"/>
+      <c r="E154" s="12"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="3"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="13"/>
+      <c r="E155" s="12"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="3"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="13"/>
+      <c r="E156" s="12"/>
       <c r="F156" s="3"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="3"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="13"/>
+      <c r="E157" s="12"/>
       <c r="F157" s="3"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="3"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="13"/>
+      <c r="E158" s="12"/>
       <c r="F158" s="3"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="3"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="13"/>
+      <c r="E159" s="12"/>
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="3"/>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="13"/>
+      <c r="E160" s="12"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="3"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="13"/>
+      <c r="E161" s="12"/>
       <c r="F161" s="3"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="3"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="13"/>
+      <c r="E162" s="12"/>
       <c r="F162" s="3"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="3"/>
-      <c r="B163" s="13"/>
-      <c r="C163" s="13"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="13"/>
+      <c r="E163" s="12"/>
       <c r="F163" s="3"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="3"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="13"/>
+      <c r="E164" s="12"/>
       <c r="F164" s="3"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="3"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="13"/>
+      <c r="E165" s="12"/>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="3"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="13"/>
+      <c r="E166" s="12"/>
       <c r="F166" s="3"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="3"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="13"/>
+      <c r="E167" s="12"/>
       <c r="F167" s="3"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="3"/>
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="13"/>
+      <c r="E168" s="12"/>
       <c r="F168" s="3"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="3"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="13"/>
+      <c r="E169" s="12"/>
       <c r="F169" s="3"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="3"/>
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="13"/>
+      <c r="E170" s="12"/>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="3"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="13"/>
+      <c r="E171" s="12"/>
       <c r="F171" s="3"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="3"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="13"/>
+      <c r="E172" s="12"/>
       <c r="F172" s="3"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="3"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="13"/>
+      <c r="E173" s="12"/>
       <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="3"/>
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="13"/>
+      <c r="E174" s="12"/>
       <c r="F174" s="3"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="3"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="13"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="13"/>
+      <c r="E175" s="12"/>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="3"/>
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="13"/>
+      <c r="E176" s="12"/>
       <c r="F176" s="3"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="3"/>
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="13"/>
+      <c r="E177" s="12"/>
       <c r="F177" s="3"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="3"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="13"/>
+      <c r="E178" s="12"/>
       <c r="F178" s="3"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="3"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="13"/>
+      <c r="E179" s="12"/>
       <c r="F179" s="3"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="3"/>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="13"/>
+      <c r="E180" s="12"/>
       <c r="F180" s="3"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="3"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="13"/>
+      <c r="E181" s="3"/>
       <c r="F181" s="3"/>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="3"/>
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="3"/>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="3"/>
-      <c r="B183" s="13"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="3"/>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="3"/>
-      <c r="B185" s="13"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="3"/>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="3"/>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="3"/>
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="3"/>
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="3"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="3"/>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="3"/>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="3"/>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="3"/>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="3"/>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" s="3"/>
-      <c r="B192" s="13"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="3"/>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="3"/>
-      <c r="B193" s="13"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="3"/>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="3"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="3"/>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" s="3"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:B81">
-    <sortCondition ref="A17:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:B67">
+    <sortCondition ref="A17:A67"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -3658,7 +3499,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3669,27 +3510,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>115</v>
+      <c r="A2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
